--- a/hardware/rev 1.3/PickAndPlace_PCB REV1.3_2024-08-18.xlsx
+++ b/hardware/rev 1.3/PickAndPlace_PCB REV1.3_2024-08-18.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="313">
   <si>
     <t>Designator</t>
   </si>
@@ -547,72 +547,45 @@
     <t>39.561mm</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>0603WAF220JT5E</t>
-  </si>
-  <si>
-    <t>22.987mm</t>
-  </si>
-  <si>
-    <t>34.29mm</t>
-  </si>
-  <si>
-    <t>23.74mm</t>
-  </si>
-  <si>
-    <t>22Ω</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>23.114mm</t>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0805W8F1003T5E</t>
+  </si>
+  <si>
+    <t>44.196mm</t>
+  </si>
+  <si>
+    <t>39.497mm</t>
+  </si>
+  <si>
+    <t>45.196mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0805W8F5600T5E</t>
+  </si>
+  <si>
+    <t>68.199mm</t>
+  </si>
+  <si>
+    <t>69.199mm</t>
+  </si>
+  <si>
+    <t>560Ω</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CL10C220JB8NNNC</t>
   </si>
   <si>
     <t>36.068mm</t>
   </si>
   <si>
-    <t>23.867mm</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>0805W8F1003T5E</t>
-  </si>
-  <si>
-    <t>44.196mm</t>
-  </si>
-  <si>
-    <t>39.497mm</t>
-  </si>
-  <si>
-    <t>45.196mm</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>0805W8F5600T5E</t>
-  </si>
-  <si>
-    <t>68.199mm</t>
-  </si>
-  <si>
-    <t>69.199mm</t>
-  </si>
-  <si>
-    <t>560Ω</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CL10C220JB8NNNC</t>
-  </si>
-  <si>
     <t>25.908mm</t>
   </si>
   <si>
@@ -947,6 +920,36 @@
   </si>
   <si>
     <t>68.46mm</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>65.278mm</t>
+  </si>
+  <si>
+    <t>21.082mm</t>
+  </si>
+  <si>
+    <t>66.548mm</t>
+  </si>
+  <si>
+    <t>64.414mm</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>67.183mm</t>
+  </si>
+  <si>
+    <t>53.467mm</t>
+  </si>
+  <si>
+    <t>68.453mm</t>
+  </si>
+  <si>
+    <t>66.319mm</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2663,7 @@
         <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>180</v>
@@ -2693,36 +2696,36 @@
         <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
         <v>184</v>
       </c>
-      <c r="B32" t="s">
-        <v>179</v>
-      </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
         <v>185</v>
       </c>
       <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
         <v>186</v>
       </c>
-      <c r="H32" t="s">
-        <v>187</v>
-      </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2737,7 +2740,7 @@
         <v>45</v>
       </c>
       <c r="N32" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2748,7 +2751,7 @@
         <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>190</v>
@@ -2775,42 +2778,42 @@
         <v>19</v>
       </c>
       <c r="L33">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
         <v>45</v>
       </c>
       <c r="N33" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
         <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
         <v>195</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" t="s">
         <v>196</v>
-      </c>
-      <c r="I34" t="s">
-        <v>190</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -2825,7 +2828,7 @@
         <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2836,69 +2839,69 @@
         <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s">
         <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2907,168 +2910,168 @@
         <v>19</v>
       </c>
       <c r="L36">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
         <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
         <v>207</v>
       </c>
-      <c r="B37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <v>90</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" t="s">
         <v>210</v>
-      </c>
-      <c r="E37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H37" t="s">
-        <v>212</v>
-      </c>
-      <c r="I37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37">
-        <v>49</v>
-      </c>
-      <c r="K37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37">
-        <v>180</v>
-      </c>
-      <c r="M37" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
         <v>214</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>215</v>
-      </c>
-      <c r="C38" t="s">
-        <v>160</v>
       </c>
       <c r="D38" t="s">
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
         <v>216</v>
       </c>
       <c r="G38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" t="s">
         <v>217</v>
-      </c>
-      <c r="H38" t="s">
-        <v>216</v>
       </c>
       <c r="I38" t="s">
         <v>218</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
         <v>19</v>
       </c>
       <c r="L38">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
         <v>220</v>
       </c>
-      <c r="B39" t="s">
-        <v>215</v>
-      </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="H39" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="s">
         <v>19</v>
       </c>
       <c r="L39">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N39" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="H40" t="s">
         <v>226</v>
@@ -3077,19 +3080,19 @@
         <v>227</v>
       </c>
       <c r="J40">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>19</v>
       </c>
       <c r="L40">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>20</v>
       </c>
       <c r="N40" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3097,48 +3100,48 @@
         <v>228</v>
       </c>
       <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
         <v>229</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>230</v>
       </c>
-      <c r="D41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" t="s">
-        <v>232</v>
-      </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I41" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>19</v>
       </c>
       <c r="L41">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M41" t="s">
         <v>20</v>
       </c>
       <c r="N41" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -3147,22 +3150,22 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -3191,22 +3194,22 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3235,22 +3238,22 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3270,34 +3273,34 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" t="s">
         <v>243</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" t="s">
-        <v>244</v>
-      </c>
-      <c r="G45" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" t="s">
-        <v>244</v>
-      </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="s">
         <v>19</v>
@@ -3306,191 +3309,191 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N45" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" t="s">
         <v>246</v>
       </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" t="s">
+        <v>251</v>
+      </c>
+      <c r="H46" t="s">
         <v>248</v>
       </c>
-      <c r="F46" t="s">
-        <v>247</v>
-      </c>
-      <c r="G46" t="s">
-        <v>248</v>
-      </c>
-      <c r="H46" t="s">
-        <v>247</v>
-      </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s">
         <v>20</v>
       </c>
       <c r="N46" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I47" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" t="s">
         <v>19</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
         <v>45</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H48" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I48" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J48">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L48">
         <v>270</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N48" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" t="s">
         <v>265</v>
       </c>
-      <c r="F49" t="s">
-        <v>88</v>
-      </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I49" t="s">
         <v>266</v>
       </c>
-      <c r="I49" t="s">
-        <v>267</v>
-      </c>
       <c r="J49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
         <v>19</v>
       </c>
       <c r="L49">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M49" t="s">
         <v>45</v>
       </c>
       <c r="N49" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
         <v>168</v>
@@ -3499,22 +3502,22 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" t="s">
         <v>270</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" t="s">
         <v>271</v>
-      </c>
-      <c r="F50" t="s">
-        <v>270</v>
-      </c>
-      <c r="G50" t="s">
-        <v>271</v>
-      </c>
-      <c r="H50" t="s">
-        <v>270</v>
-      </c>
-      <c r="I50" t="s">
-        <v>272</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3534,31 +3537,31 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" t="s">
         <v>275</v>
       </c>
-      <c r="F51" t="s">
-        <v>274</v>
-      </c>
       <c r="G51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H51" t="s">
+        <v>277</v>
+      </c>
+      <c r="I51" t="s">
         <v>276</v>
-      </c>
-      <c r="I51" t="s">
-        <v>275</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3567,42 +3570,42 @@
         <v>19</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M51" t="s">
         <v>45</v>
       </c>
       <c r="N51" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -3611,42 +3614,42 @@
         <v>19</v>
       </c>
       <c r="L52">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
         <v>45</v>
       </c>
       <c r="N52" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H53" t="s">
         <v>286</v>
       </c>
       <c r="I53" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -3655,39 +3658,39 @@
         <v>19</v>
       </c>
       <c r="L53">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
         <v>45</v>
       </c>
       <c r="N53" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E54" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" t="s">
         <v>290</v>
       </c>
-      <c r="F54" t="s">
-        <v>289</v>
-      </c>
       <c r="G54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H54" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I54" t="s">
         <v>291</v>
@@ -3699,145 +3702,145 @@
         <v>19</v>
       </c>
       <c r="L54">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s">
         <v>45</v>
       </c>
       <c r="N54" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" t="s">
+        <v>296</v>
+      </c>
+      <c r="G55" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" t="s">
+        <v>296</v>
+      </c>
+      <c r="I55" t="s">
+        <v>298</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55">
+        <v>270</v>
+      </c>
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" t="s">
         <v>294</v>
-      </c>
-      <c r="D55" t="s">
-        <v>295</v>
-      </c>
-      <c r="E55" t="s">
-        <v>271</v>
-      </c>
-      <c r="F55" t="s">
-        <v>295</v>
-      </c>
-      <c r="G55" t="s">
-        <v>296</v>
-      </c>
-      <c r="H55" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" t="s">
-        <v>297</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
-      <c r="K55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55">
-        <v>90</v>
-      </c>
-      <c r="M55" t="s">
-        <v>45</v>
-      </c>
-      <c r="N55" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" t="s">
         <v>300</v>
       </c>
-      <c r="F56" t="s">
-        <v>299</v>
-      </c>
       <c r="G56" t="s">
+        <v>301</v>
+      </c>
+      <c r="H56" t="s">
         <v>300</v>
       </c>
-      <c r="H56" t="s">
-        <v>301</v>
-      </c>
       <c r="I56" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
       <c r="L56">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N56" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" t="s">
         <v>304</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>305</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>306</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>305</v>
       </c>
-      <c r="G57" t="s">
-        <v>306</v>
-      </c>
       <c r="H57" t="s">
+        <v>307</v>
+      </c>
+      <c r="I57" t="s">
         <v>305</v>
       </c>
-      <c r="I57" t="s">
-        <v>307</v>
-      </c>
       <c r="J57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
       </c>
       <c r="L57">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N57" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3845,10 +3848,10 @@
         <v>308</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
         <v>309</v>
@@ -3857,31 +3860,31 @@
         <v>310</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G58" t="s">
         <v>310</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58" t="s">
         <v>19</v>
       </c>
       <c r="L58">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N58" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
